--- a/TURISTICAS Y HOTELERAS/HORARIO TURISMO Y HOTELERIA.xlsx
+++ b/TURISTICAS Y HOTELERAS/HORARIO TURISMO Y HOTELERIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AB1700-EA94-4DA4-991F-501C1920A74E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E869BBE-3DE4-415C-B4E5-2B0974CFD1F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{574D6201-105F-425A-9883-FA4AEF0A3F83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="6" xr2:uid="{574D6201-105F-425A-9883-FA4AEF0A3F83}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="160">
   <si>
     <t>HORA</t>
   </si>
@@ -475,6 +475,42 @@
   </si>
   <si>
     <t xml:space="preserve">CP101 (10) TURISMO Y HOTELERIA </t>
+  </si>
+  <si>
+    <t>CP100(09)</t>
+  </si>
+  <si>
+    <t>CP100(10)</t>
+  </si>
+  <si>
+    <t>CP211(01)</t>
+  </si>
+  <si>
+    <t>202B</t>
+  </si>
+  <si>
+    <t>PG301F(10)</t>
+  </si>
+  <si>
+    <t>HM301F(10)</t>
+  </si>
+  <si>
+    <t>MT201C(11)</t>
+  </si>
+  <si>
+    <t>DR551(10)</t>
+  </si>
+  <si>
+    <t>}35</t>
+  </si>
+  <si>
+    <t>MT304C(10)</t>
+  </si>
+  <si>
+    <t>DR305(01)</t>
+  </si>
+  <si>
+    <t>CP401(01)</t>
   </si>
 </sst>
 </file>
@@ -892,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,15 +981,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1398,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A863D0-6451-4946-B27F-AC87C9641BE0}">
   <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,19 +1534,23 @@
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="72">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="73">
+      <c r="P5" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70">
         <v>2</v>
       </c>
     </row>
@@ -1539,19 +1570,23 @@
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="J6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="76" t="s">
+      <c r="O6" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="77">
+      <c r="P6" s="74">
         <v>3</v>
       </c>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="78">
+      <c r="Q6" s="74"/>
+      <c r="R6" s="75">
         <v>2</v>
       </c>
     </row>
@@ -1561,8 +1596,8 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="21" t="s">
         <v>137</v>
       </c>
@@ -1570,20 +1605,20 @@
         <v>66</v>
       </c>
       <c r="H7" s="21"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="71">
         <v>3</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="72">
         <v>2</v>
       </c>
     </row>
@@ -1593,29 +1628,29 @@
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="14"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="71" t="s">
+      <c r="O8" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="74">
+      <c r="P8" s="71">
         <v>3</v>
       </c>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="75">
+      <c r="Q8" s="71"/>
+      <c r="R8" s="72">
         <v>2</v>
       </c>
     </row>
@@ -1623,101 +1658,105 @@
       <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="22"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="71" t="s">
+      <c r="O9" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="74">
+      <c r="P9" s="71">
         <v>3</v>
       </c>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75">
+      <c r="Q9" s="71"/>
+      <c r="R9" s="72">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="70" t="s">
+      <c r="O10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="80">
+      <c r="P10" s="77">
         <v>3</v>
       </c>
-      <c r="Q10" s="80">
+      <c r="Q10" s="77">
         <v>25</v>
       </c>
-      <c r="R10" s="81">
+      <c r="R10" s="78">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="47" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="44" t="s">
         <v>144</v>
       </c>
       <c r="K11" s="12" t="s">
@@ -1726,89 +1765,97 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="53" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="68" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="64"/>
+      <c r="F14" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>41</v>
+      </c>
       <c r="H14" s="21" t="s">
         <v>141</v>
       </c>
@@ -1824,34 +1871,34 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>141</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="22" t="s">
         <v>140</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="29" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="21" t="s">
@@ -1862,53 +1909,57 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="65" t="s">
+      <c r="O16" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="12"/>
@@ -1924,12 +1975,12 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="65" t="s">
+      <c r="O17" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -1948,12 +1999,12 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="65" t="s">
+      <c r="O18" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -1972,59 +2023,59 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="62" t="s">
+      <c r="O19" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="84" t="s">
+      <c r="O20" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O21" s="84" t="s">
+      <c r="O21" s="81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O22" s="84" t="s">
+      <c r="O22" s="81" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O23" s="84" t="s">
+      <c r="O23" s="81" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O24" s="84" t="s">
+      <c r="O24" s="81" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O25" s="84" t="s">
+      <c r="O25" s="81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2059,7 +2110,7 @@
   <dimension ref="A2:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,8 +2201,12 @@
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
       <c r="H5" s="12"/>
@@ -2161,12 +2216,18 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="19"/>
+      <c r="P5" s="69">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="69">
+        <v>35</v>
+      </c>
+      <c r="R5" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -2174,8 +2235,12 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="14"/>
       <c r="H6" s="21"/>
@@ -2185,12 +2250,18 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
+      <c r="P6" s="74">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="74">
+        <v>35</v>
+      </c>
+      <c r="R6" s="75">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
@@ -2198,23 +2269,29 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="21"/>
       <c r="G7" s="14"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
+      <c r="P7" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="R7" s="72">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -2222,178 +2299,214 @@
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="21"/>
       <c r="G8" s="14"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
+      <c r="P8" s="71">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="71">
+        <v>35</v>
+      </c>
+      <c r="R8" s="72">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="22"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="31"/>
+      <c r="P9" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="71">
+        <v>35</v>
+      </c>
+      <c r="R9" s="72">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="70" t="s">
+      <c r="O10" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P10" s="77">
         <v>4</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="77">
         <v>40</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="78">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="47" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="47"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="51" t="s">
+      <c r="O11" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="51">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="51">
+      <c r="P11" s="76">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="76">
         <v>40</v>
       </c>
-      <c r="R11" s="51">
+      <c r="R11" s="76">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="53" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
+      <c r="B13" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="65"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="64"/>
+      <c r="F14" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -2401,65 +2514,73 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>51</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="57" t="s">
+      <c r="B16" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="12"/>
@@ -2475,10 +2596,10 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -2486,8 +2607,12 @@
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -2497,10 +2622,10 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -2508,8 +2633,12 @@
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -2519,32 +2648,36 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2578,7 +2711,7 @@
   <dimension ref="A2:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="O10" sqref="O10:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,16 +2826,16 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="72">
+      <c r="P5" s="69">
         <v>3</v>
       </c>
-      <c r="Q5" s="72">
+      <c r="Q5" s="69">
         <v>30</v>
       </c>
-      <c r="R5" s="73">
+      <c r="R5" s="70">
         <v>1</v>
       </c>
     </row>
@@ -2729,16 +2862,16 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="76" t="s">
+      <c r="O6" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="77">
+      <c r="P6" s="74">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="74">
         <v>35</v>
       </c>
-      <c r="R6" s="78">
+      <c r="R6" s="75">
         <v>2</v>
       </c>
     </row>
@@ -2748,10 +2881,10 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F7" s="21" t="s">
@@ -2761,8 +2894,8 @@
         <v>41</v>
       </c>
       <c r="H7" s="21"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="22" t="s">
         <v>75</v>
       </c>
       <c r="K7" s="21" t="s">
@@ -2771,12 +2904,18 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
+      <c r="P7" s="71">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>35</v>
+      </c>
+      <c r="R7" s="72">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -2784,21 +2923,21 @@
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="21" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="22" t="s">
         <v>75</v>
       </c>
       <c r="K8" s="21" t="s">
@@ -2807,16 +2946,16 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="71" t="s">
+      <c r="O8" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="74">
+      <c r="P8" s="71">
         <v>3</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="71">
         <v>35</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="72">
         <v>2</v>
       </c>
     </row>
@@ -2824,170 +2963,184 @@
       <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="26" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="71" t="s">
+      <c r="O9" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="74">
+      <c r="P9" s="71">
         <v>3</v>
       </c>
-      <c r="Q9" s="74">
+      <c r="Q9" s="71">
         <v>35</v>
       </c>
-      <c r="R9" s="75">
+      <c r="R9" s="72">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="43" t="s">
+      <c r="O10" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
+      <c r="P10" s="77">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="77">
+        <v>30</v>
+      </c>
+      <c r="R10" s="78">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="47"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="79" t="s">
+      <c r="O11" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="79">
+      <c r="P11" s="76">
         <v>4</v>
       </c>
-      <c r="Q11" s="79">
+      <c r="Q11" s="76">
         <v>25</v>
       </c>
-      <c r="R11" s="79">
+      <c r="R11" s="76">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60" t="s">
+      <c r="H13" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="60" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="21"/>
@@ -2995,11 +3148,15 @@
       <c r="F14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="H14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="J14" s="21" t="s">
         <v>69</v>
       </c>
@@ -3009,30 +3166,34 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
         <v>69</v>
@@ -3043,39 +3204,43 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="D16" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="12"/>
@@ -3091,10 +3256,10 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -3113,10 +3278,10 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -3135,32 +3300,32 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3194,7 +3359,7 @@
   <dimension ref="A3:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="O20" sqref="O20:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3305,16 +3470,16 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="69">
         <v>4</v>
       </c>
-      <c r="Q6" s="72">
+      <c r="Q6" s="69">
         <v>35</v>
       </c>
-      <c r="R6" s="73">
+      <c r="R6" s="70">
         <v>2</v>
       </c>
     </row>
@@ -3343,12 +3508,18 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
+      <c r="P7" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="74">
+        <v>35</v>
+      </c>
+      <c r="R7" s="75">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -3356,10 +3527,10 @@
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="21"/>
@@ -3367,10 +3538,10 @@
       <c r="H8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="25" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="21" t="s">
@@ -3379,16 +3550,16 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="71" t="s">
+      <c r="O8" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="74">
+      <c r="P8" s="71">
         <v>4</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="71">
         <v>35</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="72">
         <v>1</v>
       </c>
     </row>
@@ -3402,17 +3573,17 @@
       <c r="C9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="14"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="25" t="s">
         <v>86</v>
       </c>
       <c r="K9" s="21" t="s">
@@ -3421,16 +3592,16 @@
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="71" t="s">
+      <c r="O9" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="74">
+      <c r="P9" s="71">
         <v>3</v>
       </c>
-      <c r="Q9" s="74">
+      <c r="Q9" s="71">
         <v>35</v>
       </c>
-      <c r="R9" s="75">
+      <c r="R9" s="72">
         <v>1</v>
       </c>
     </row>
@@ -3438,156 +3609,168 @@
       <c r="A10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="25"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="22"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="29" t="s">
+      <c r="O10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="70" t="s">
+      <c r="O11" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="80">
+      <c r="P11" s="77">
         <v>3</v>
       </c>
-      <c r="Q11" s="80">
+      <c r="Q11" s="77">
         <v>35</v>
       </c>
-      <c r="R11" s="81">
+      <c r="R11" s="78">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="47"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="44"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="53" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="68" t="s">
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="21" t="s">
         <v>89</v>
       </c>
@@ -3595,7 +3778,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="21"/>
-      <c r="G15" s="64"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="21" t="s">
         <v>88</v>
       </c>
@@ -3607,10 +3790,10 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
@@ -3620,9 +3803,9 @@
       <c r="C16" s="13"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="29" t="s">
         <v>88</v>
       </c>
       <c r="I16" s="21" t="s">
@@ -3633,39 +3816,39 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="57" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="12"/>
@@ -3681,10 +3864,10 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -3703,10 +3886,10 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -3725,32 +3908,32 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3878,13 +4061,13 @@
       <c r="C5" s="13"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="65" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="65" t="s">
         <v>97</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -3895,16 +4078,16 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="72">
+      <c r="P5" s="69">
         <v>3</v>
       </c>
-      <c r="Q5" s="72">
+      <c r="Q5" s="69">
         <v>25</v>
       </c>
-      <c r="R5" s="73">
+      <c r="R5" s="70">
         <v>2</v>
       </c>
     </row>
@@ -3916,13 +4099,13 @@
       <c r="C6" s="13"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="22" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>97</v>
       </c>
       <c r="I6" s="13" t="s">
@@ -3933,16 +4116,16 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="76" t="s">
+      <c r="O6" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="P6" s="77">
+      <c r="P6" s="74">
         <v>6</v>
       </c>
-      <c r="Q6" s="77">
+      <c r="Q6" s="74">
         <v>20</v>
       </c>
-      <c r="R6" s="78">
+      <c r="R6" s="75">
         <v>2</v>
       </c>
     </row>
@@ -3952,21 +4135,21 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="21" t="s">
         <v>102</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="22" t="s">
         <v>107</v>
       </c>
       <c r="K7" s="21" t="s">
@@ -3975,16 +4158,16 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="71" t="s">
+      <c r="O7" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="74">
+      <c r="P7" s="71">
         <v>3</v>
       </c>
-      <c r="Q7" s="74">
+      <c r="Q7" s="71">
         <v>25</v>
       </c>
-      <c r="R7" s="75">
+      <c r="R7" s="72">
         <v>2</v>
       </c>
     </row>
@@ -3992,16 +4175,16 @@
       <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -4013,10 +4196,10 @@
       <c r="H8" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="22" t="s">
         <v>107</v>
       </c>
       <c r="K8" s="21" t="s">
@@ -4025,16 +4208,16 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="71" t="s">
+      <c r="O8" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="74">
+      <c r="P8" s="71">
         <v>3</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="71">
         <v>25</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="72">
         <v>1</v>
       </c>
     </row>
@@ -4042,107 +4225,107 @@
       <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="71" t="s">
+      <c r="O9" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="74">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="74">
+      <c r="P9" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="71">
         <v>40</v>
       </c>
-      <c r="R9" s="75">
+      <c r="R9" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="47" t="s">
+      <c r="H11" s="44"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="44" t="s">
         <v>99</v>
       </c>
       <c r="K11" s="12" t="s">
@@ -4151,77 +4334,77 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="53" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="47" t="s">
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="21" t="s">
         <v>99</v>
       </c>
@@ -4229,10 +4412,10 @@
         <v>57</v>
       </c>
       <c r="F14" s="21"/>
-      <c r="G14" s="64"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="22" t="s">
         <v>102</v>
       </c>
       <c r="K14" s="21" t="s">
@@ -4241,12 +4424,12 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
@@ -4256,46 +4439,46 @@
       <c r="C15" s="13"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="32"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="12"/>
@@ -4311,10 +4494,10 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -4333,10 +4516,10 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -4355,32 +4538,32 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4517,16 +4700,16 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="69">
         <v>3</v>
       </c>
-      <c r="Q6" s="72">
+      <c r="Q6" s="69">
         <v>20</v>
       </c>
-      <c r="R6" s="73">
+      <c r="R6" s="70">
         <v>1</v>
       </c>
     </row>
@@ -4547,16 +4730,16 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="76" t="s">
+      <c r="O7" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="77">
+      <c r="P7" s="74">
         <v>4</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="74">
         <v>35</v>
       </c>
-      <c r="R7" s="78">
+      <c r="R7" s="75">
         <v>2</v>
       </c>
     </row>
@@ -4570,31 +4753,31 @@
       <c r="C8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22" t="s">
         <v>117</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H8" s="21"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="71" t="s">
+      <c r="O8" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="P8" s="74">
+      <c r="P8" s="71">
         <v>3</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="71">
         <v>25</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="72">
         <v>1</v>
       </c>
     </row>
@@ -4602,63 +4785,63 @@
       <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22" t="s">
         <v>117</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="21"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="27">
         <v>3</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="27">
         <v>20</v>
       </c>
-      <c r="R9" s="31"/>
+      <c r="R9" s="28"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="25" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="22" t="s">
         <v>120</v>
       </c>
       <c r="K10" s="21" t="s">
@@ -4667,70 +4850,70 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="71">
         <v>3</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="71">
         <v>20</v>
       </c>
-      <c r="R10" s="75">
+      <c r="R10" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="36" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="45"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="44" t="s">
         <v>120</v>
       </c>
       <c r="K12" s="12" t="s">
@@ -4739,94 +4922,94 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="53" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="68" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="68" t="s">
+      <c r="H14" s="65"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="K14" s="60" t="s">
+      <c r="K14" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="82" t="s">
+      <c r="O14" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="22" t="s">
         <v>119</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="61" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="22" t="s">
         <v>122</v>
       </c>
       <c r="K15" s="21" t="s">
@@ -4835,12 +5018,12 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="83" t="s">
+      <c r="O15" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
@@ -4850,15 +5033,15 @@
       <c r="C16" s="13"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="22" t="s">
         <v>118</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="32"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="22" t="s">
         <v>122</v>
       </c>
       <c r="K16" s="21" t="s">
@@ -4867,41 +5050,41 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="83" t="s">
+      <c r="O16" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="65"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="53" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="12"/>
@@ -4917,10 +5100,10 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -4939,10 +5122,10 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -4961,32 +5144,32 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5019,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CA9915-B8D1-4A4B-BEDA-E4FFB09691AB}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7:R11"/>
     </sheetView>
   </sheetViews>
@@ -5178,16 +5361,16 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="76" t="s">
+      <c r="O7" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="P7" s="77">
+      <c r="P7" s="74">
         <v>3</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="74">
         <v>30</v>
       </c>
-      <c r="R7" s="78">
+      <c r="R7" s="75">
         <v>1</v>
       </c>
     </row>
@@ -5197,10 +5380,10 @@
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="21"/>
@@ -5208,24 +5391,24 @@
       <c r="H8" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="28"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="71" t="s">
+      <c r="O8" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="P8" s="74">
+      <c r="P8" s="71">
         <v>3</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="71">
         <v>20</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="72">
         <v>1</v>
       </c>
     </row>
@@ -5235,10 +5418,10 @@
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -5250,24 +5433,24 @@
       <c r="H9" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="28"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="71" t="s">
+      <c r="O9" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="P9" s="74">
+      <c r="P9" s="71">
         <v>3</v>
       </c>
-      <c r="Q9" s="74">
+      <c r="Q9" s="71">
         <v>20</v>
       </c>
-      <c r="R9" s="75">
+      <c r="R9" s="72">
         <v>1</v>
       </c>
     </row>
@@ -5275,165 +5458,165 @@
       <c r="A10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="74">
+      <c r="P10" s="71">
         <v>3</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="71">
         <v>35</v>
       </c>
-      <c r="R10" s="75">
+      <c r="R10" s="72">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="25" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="70" t="s">
+      <c r="O11" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="P11" s="80">
+      <c r="P11" s="77">
         <v>3</v>
       </c>
-      <c r="Q11" s="80">
+      <c r="Q11" s="77">
         <v>19</v>
       </c>
-      <c r="R11" s="81">
+      <c r="R11" s="78">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="47"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="44"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="64"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="22" t="s">
         <v>133</v>
       </c>
       <c r="K15" s="21" t="s">
@@ -5442,10 +5625,10 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
@@ -5455,11 +5638,11 @@
       <c r="C16" s="13"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="32"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="22" t="s">
         <v>133</v>
       </c>
       <c r="K16" s="21" t="s">
@@ -5468,39 +5651,39 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="36" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="12"/>
@@ -5516,10 +5699,10 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -5538,10 +5721,10 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -5560,32 +5743,32 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
